--- a/src/Data/ClusteringQuality/DenStream/Denstream-KDD99-Normalized.xlsx
+++ b/src/Data/ClusteringQuality/DenStream/Denstream-KDD99-Normalized.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Documents/ISCAS/StreamingML/document/clustering/streamclustering/TestResult/pic/0509CMMNormalied/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/ClusteringQuality/DenStream/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,15 +32,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>ordered-DenStream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unordered-DenStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MOA=1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistStream-DenStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,26 +421,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>

--- a/src/Data/ClusteringQuality/DenStream/Denstream-KDD99-Normalized.xlsx
+++ b/src/Data/ClusteringQuality/DenStream/Denstream-KDD99-Normalized.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/ClusteringQuality/DenStream/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="37640" yWindow="-760" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,16 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>unordered-DenStream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOA=1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DistStream-DenStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unordered-DenStream</t>
   </si>
 </sst>
 </file>
@@ -52,14 +46,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -67,7 +61,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -107,7 +101,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -165,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -217,7 +211,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -411,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,31 +416,31 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -460,7 +454,7 @@
         <v>0.95454729087155155</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -474,7 +468,7 @@
         <v>0.93507174119891834</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -488,7 +482,7 @@
         <v>0.89784812052027541</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>40</v>
       </c>
@@ -502,7 +496,7 @@
         <v>0.5042500303147005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -516,7 +510,7 @@
         <v>0.36787944099999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -530,7 +524,7 @@
         <v>0.3791945047087556</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>70</v>
       </c>
@@ -544,7 +538,7 @@
         <v>0.99214744400474353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>80</v>
       </c>
@@ -558,7 +552,7 @@
         <v>0.94674749253958834</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -572,7 +566,7 @@
         <v>0.92021894735998733</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>100</v>
       </c>
@@ -586,7 +580,7 @@
         <v>0.36787944099999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>110</v>
       </c>
@@ -600,7 +594,7 @@
         <v>0.37963168305969391</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>120</v>
       </c>
@@ -614,7 +608,7 @@
         <v>1.0010189903728537</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>130</v>
       </c>
@@ -628,7 +622,7 @@
         <v>0.36821500764190584</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>140</v>
       </c>
@@ -642,7 +636,7 @@
         <v>0.67411117100075324</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>150</v>
       </c>
@@ -656,7 +650,7 @@
         <v>0.81011198627488623</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>160</v>
       </c>
@@ -670,7 +664,7 @@
         <v>0.99993513012896273</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>170</v>
       </c>
@@ -684,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>180</v>
       </c>
@@ -698,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>190</v>
       </c>
@@ -712,7 +706,7 @@
         <v>0.99999961436143803</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>200</v>
       </c>
@@ -726,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>210</v>
       </c>
@@ -740,7 +734,7 @@
         <v>0.98121699780640237</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>220</v>
       </c>
@@ -754,7 +748,7 @@
         <v>1.0003729986673473</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>230</v>
       </c>
@@ -768,7 +762,7 @@
         <v>0.99300965914439798</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>240</v>
       </c>
@@ -782,7 +776,7 @@
         <v>0.99888405417897652</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>250</v>
       </c>
@@ -796,7 +790,7 @@
         <v>0.99972034026252166</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>260</v>
       </c>
@@ -810,7 +804,7 @@
         <v>1.0013371662856014</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>270</v>
       </c>
@@ -824,7 +818,7 @@
         <v>0.9966541377170105</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>280</v>
       </c>
@@ -838,7 +832,7 @@
         <v>0.99945908002597572</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>290</v>
       </c>
@@ -852,7 +846,7 @@
         <v>0.99967237677698906</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>300</v>
       </c>
@@ -866,7 +860,7 @@
         <v>1.0001010432927253</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>310</v>
       </c>
@@ -880,7 +874,7 @@
         <v>1.0002393541193488</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>320</v>
       </c>
@@ -894,7 +888,7 @@
         <v>1.0001220425822392</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>330</v>
       </c>
@@ -908,7 +902,7 @@
         <v>0.99997016494067881</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>340</v>
       </c>
@@ -922,7 +916,7 @@
         <v>0.9999980860989246</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>350</v>
       </c>
@@ -936,7 +930,7 @@
         <v>0.50385998824384681</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>360</v>
       </c>
@@ -950,7 +944,7 @@
         <v>1.002452701046477</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>370</v>
       </c>
@@ -964,7 +958,7 @@
         <v>0.37775488671162971</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>380</v>
       </c>
@@ -978,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>390</v>
       </c>
@@ -992,7 +986,7 @@
         <v>1.0016172842117985</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>400</v>
       </c>
@@ -1006,7 +1000,7 @@
         <v>1.0002377821582455</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>410</v>
       </c>
@@ -1020,7 +1014,7 @@
         <v>1.0321818255691626</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>420</v>
       </c>
@@ -1034,7 +1028,7 @@
         <v>0.97355988458437848</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>430</v>
       </c>
@@ -1048,7 +1042,7 @@
         <v>1.0000035956598234</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>440</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>1.0000055506805021</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>450</v>
       </c>
@@ -1076,7 +1070,7 @@
         <v>1.000004520246115</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>460</v>
       </c>
@@ -1090,7 +1084,7 @@
         <v>0.9168033609539924</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>470</v>
       </c>
@@ -1104,7 +1098,7 @@
         <v>0.99493820750367867</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>480</v>
       </c>
@@ -1118,7 +1112,7 @@
         <v>0.99475309519844368</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>490</v>
       </c>
@@ -1132,55 +1126,55 @@
         <v>0.37001432183096178</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1189,5 +1183,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/Data/ClusteringQuality/DenStream/Denstream-KDD99-Normalized.xlsx
+++ b/src/Data/ClusteringQuality/DenStream/Denstream-KDD99-Normalized.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/ClusteringQuality/DenStream/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,15 +32,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>MOA=1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DistStream-DenStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Unordered-DenStream</t>
+  </si>
+  <si>
+    <t>MOA-DenStream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -46,14 +51,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -61,7 +66,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -101,7 +106,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,31 +421,31 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -454,7 +459,7 @@
         <v>0.95454729087155155</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -468,7 +473,7 @@
         <v>0.93507174119891834</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -482,7 +487,7 @@
         <v>0.89784812052027541</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>40</v>
       </c>
@@ -496,7 +501,7 @@
         <v>0.5042500303147005</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -510,7 +515,7 @@
         <v>0.36787944099999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -524,7 +529,7 @@
         <v>0.3791945047087556</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>70</v>
       </c>
@@ -538,7 +543,7 @@
         <v>0.99214744400474353</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>80</v>
       </c>
@@ -552,7 +557,7 @@
         <v>0.94674749253958834</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -566,7 +571,7 @@
         <v>0.92021894735998733</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>100</v>
       </c>
@@ -580,7 +585,7 @@
         <v>0.36787944099999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>110</v>
       </c>
@@ -594,7 +599,7 @@
         <v>0.37963168305969391</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>120</v>
       </c>
@@ -608,7 +613,7 @@
         <v>1.0010189903728537</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>130</v>
       </c>
@@ -622,7 +627,7 @@
         <v>0.36821500764190584</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>140</v>
       </c>
@@ -636,7 +641,7 @@
         <v>0.67411117100075324</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>150</v>
       </c>
@@ -650,7 +655,7 @@
         <v>0.81011198627488623</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>160</v>
       </c>
@@ -664,7 +669,7 @@
         <v>0.99993513012896273</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>170</v>
       </c>
@@ -678,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>180</v>
       </c>
@@ -692,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>190</v>
       </c>
@@ -706,7 +711,7 @@
         <v>0.99999961436143803</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>200</v>
       </c>
@@ -720,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>210</v>
       </c>
@@ -734,7 +739,7 @@
         <v>0.98121699780640237</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>220</v>
       </c>
@@ -748,7 +753,7 @@
         <v>1.0003729986673473</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>230</v>
       </c>
@@ -762,7 +767,7 @@
         <v>0.99300965914439798</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>240</v>
       </c>
@@ -776,7 +781,7 @@
         <v>0.99888405417897652</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>250</v>
       </c>
@@ -790,7 +795,7 @@
         <v>0.99972034026252166</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>260</v>
       </c>
@@ -804,7 +809,7 @@
         <v>1.0013371662856014</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>270</v>
       </c>
@@ -818,7 +823,7 @@
         <v>0.9966541377170105</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>280</v>
       </c>
@@ -832,7 +837,7 @@
         <v>0.99945908002597572</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>290</v>
       </c>
@@ -846,7 +851,7 @@
         <v>0.99967237677698906</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>300</v>
       </c>
@@ -860,7 +865,7 @@
         <v>1.0001010432927253</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>310</v>
       </c>
@@ -874,7 +879,7 @@
         <v>1.0002393541193488</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>320</v>
       </c>
@@ -888,7 +893,7 @@
         <v>1.0001220425822392</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>330</v>
       </c>
@@ -902,7 +907,7 @@
         <v>0.99997016494067881</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>340</v>
       </c>
@@ -916,7 +921,7 @@
         <v>0.9999980860989246</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>350</v>
       </c>
@@ -930,7 +935,7 @@
         <v>0.50385998824384681</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>360</v>
       </c>
@@ -944,7 +949,7 @@
         <v>1.002452701046477</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>370</v>
       </c>
@@ -958,7 +963,7 @@
         <v>0.37775488671162971</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>380</v>
       </c>
@@ -972,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>390</v>
       </c>
@@ -986,7 +991,7 @@
         <v>1.0016172842117985</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>400</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>1.0002377821582455</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>410</v>
       </c>
@@ -1014,7 +1019,7 @@
         <v>1.0321818255691626</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>420</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>0.97355988458437848</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>430</v>
       </c>
@@ -1042,7 +1047,7 @@
         <v>1.0000035956598234</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>440</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>1.0000055506805021</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>450</v>
       </c>
@@ -1070,7 +1075,7 @@
         <v>1.000004520246115</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>460</v>
       </c>
@@ -1084,7 +1089,7 @@
         <v>0.9168033609539924</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>470</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>0.99493820750367867</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>480</v>
       </c>
@@ -1112,7 +1117,7 @@
         <v>0.99475309519844368</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>490</v>
       </c>
@@ -1126,55 +1131,55 @@
         <v>0.37001432183096178</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1183,10 +1188,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>